--- a/Test/TestExcelFiles/PropertyTypes.xlsx
+++ b/Test/TestExcelFiles/PropertyTypes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cburge\Documents\repos\customer-tests-excel\Test\TestExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E2E50A5A-E9B1-42A9-8A06-1EA5D0BA7D29}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E3AA74B-33C3-4E50-9730-129D4B073726}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{93574C7F-CD34-4A26-A791-2CAAC18DAAC8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{93574C7F-CD34-4A26-A791-2CAAC18DAAC8}"/>
   </bookViews>
   <sheets>
     <sheet name="AllPropertyTypes" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Specification</t>
   </si>
@@ -58,9 +58,6 @@
   </si>
   <si>
     <t>DateTime of</t>
-  </si>
-  <si>
-    <t>TimeSpan of</t>
   </si>
   <si>
     <t>null</t>
@@ -141,15 +138,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -570,26 +564,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1389079D-C9FD-4AFA-AFB3-2F9AFFAD165C}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.54296875" style="1" customWidth="1"/>
     <col min="2" max="2" width="22" style="1" customWidth="1"/>
-    <col min="3" max="3" width="39.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="30.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.7265625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30.26953125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="51" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="36.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="7" width="12.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -597,7 +591,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -605,25 +599,25 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C7" s="1" t="s">
         <v>10</v>
       </c>
@@ -631,91 +625,83 @@
         <v>43466</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="3">
-        <v>5.2083333333333336E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D10" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="D11" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C12" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D13" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C14" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B16" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B19" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>7</v>
       </c>
     </row>
